--- a/Warehouse/testing/DD/judgement_logs_run4o.xlsx
+++ b/Warehouse/testing/DD/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without reaching a definitive choice of movie for Friday, resulting in no decision being made.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a clear agreement on which movie to show on Friday, resulting in no decision being made.
+MSG: The decision has been registered, and no movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was to not select a movie for Friday.
+MSG: The decision regarding the movie for Friday has not been made.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process for the movie selection did not reach a conclusion, thus no decision was made regarding the film to be shown on Friday.
+MSG: The decision has been recorded, indicating that no agreement was reached on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday.
+MSG: The decision has been recorded as no decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about Friday's movie remains unresolved.
+MSG: The decision regarding the movie to show on Friday is recorded as a no decision.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday remains unresolved.
+MSG: The decision has been recorded, and no movie will be selected for Friday.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a definitive choice for Friday's movie, resulting in no agreement being reached.
+MSG: It seems there was no definitive choice made regarding the movie to be shown on Friday, so I must proceed with the no_decision function.
 </t>
         </is>
       </c>
